--- a/account_bank_statement_import_adyen/test_files/adyen_test_credit_fees.xlsx
+++ b/account_bank_statement_import_adyen/test_files/adyen_test_credit_fees.xlsx
@@ -5,472 +5,477 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="615" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="152">
   <si>
-    <t>Company Account</t>
-  </si>
-  <si>
-    <t>Merchant Account</t>
-  </si>
-  <si>
-    <t>Psp Reference</t>
-  </si>
-  <si>
-    <t>Merchant Reference</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Creation Date</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Modification Reference</t>
-  </si>
-  <si>
-    <t>Gross Currency</t>
-  </si>
-  <si>
-    <t>Gross Debit (GC)</t>
-  </si>
-  <si>
-    <t>Gross Credit (GC)</t>
-  </si>
-  <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
-    <t>Net Currency</t>
-  </si>
-  <si>
-    <t>Net Debit (NC)</t>
-  </si>
-  <si>
-    <t>Net Credit (NC)</t>
-  </si>
-  <si>
-    <t>Commission (NC)</t>
-  </si>
-  <si>
-    <t>Markup (NC)</t>
-  </si>
-  <si>
-    <t>Scheme Fees (NC)</t>
-  </si>
-  <si>
-    <t>Interchange (NC)</t>
-  </si>
-  <si>
-    <t>Payment Method Variant</t>
-  </si>
-  <si>
-    <t>Modification Merchant Reference</t>
-  </si>
-  <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
-    <t>Reserved4</t>
-  </si>
-  <si>
-    <t>Reserved5</t>
-  </si>
-  <si>
-    <t>Reserved6</t>
-  </si>
-  <si>
-    <t>Reserved7</t>
-  </si>
-  <si>
-    <t>Reserved8</t>
-  </si>
-  <si>
-    <t>Reserved9</t>
-  </si>
-  <si>
-    <t>Reserved10</t>
-  </si>
-  <si>
-    <t>YOURCOMPANY</t>
-  </si>
-  <si>
-    <t>YOURCOMPANY_ACCOUNT</t>
-  </si>
-  <si>
-    <t>1414648783376705</t>
-  </si>
-  <si>
-    <t>19000000180</t>
-  </si>
-  <si>
-    <t>ideal</t>
-  </si>
-  <si>
-    <t>CDT</t>
-  </si>
-  <si>
-    <t>Refunded</t>
-  </si>
-  <si>
-    <t>1514649466943109</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>idealrabobank</t>
-  </si>
-  <si>
-    <t>test payment</t>
-  </si>
-  <si>
-    <t>4714647874709213</t>
-  </si>
-  <si>
-    <t>5000000020</t>
-  </si>
-  <si>
-    <t>maestro</t>
-  </si>
-  <si>
-    <t>Settled</t>
-  </si>
-  <si>
-    <t>5414647876884949</t>
-  </si>
-  <si>
-    <t>&lt;auto&gt;</t>
-  </si>
-  <si>
-    <t>4314633367275510</t>
-  </si>
-  <si>
-    <t>10000000013</t>
-  </si>
-  <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>4414647908467468</t>
-  </si>
-  <si>
-    <t>mccredit</t>
-  </si>
-  <si>
-    <t>4314646407640444</t>
-  </si>
-  <si>
-    <t>9000000025</t>
-  </si>
-  <si>
-    <t>visa</t>
-  </si>
-  <si>
-    <t>5414646407978592</t>
-  </si>
-  <si>
-    <t>visadebit</t>
-  </si>
-  <si>
-    <t>1414646749782073</t>
-  </si>
-  <si>
-    <t>5000000019</t>
-  </si>
-  <si>
-    <t>2414646750727064</t>
-  </si>
-  <si>
-    <t>visaclassic</t>
-  </si>
-  <si>
-    <t>4714646848670501</t>
-  </si>
-  <si>
-    <t>9000000027</t>
-  </si>
-  <si>
-    <t>5314646849092524</t>
-  </si>
-  <si>
-    <t>4314646889502997</t>
-  </si>
-  <si>
-    <t>9000000028</t>
-  </si>
-  <si>
-    <t>5314646889937232</t>
-  </si>
-  <si>
-    <t>1814647174458623</t>
-  </si>
-  <si>
-    <t>9000000029</t>
-  </si>
-  <si>
-    <t>2314647174757944</t>
-  </si>
-  <si>
-    <t>4314647188012811</t>
-  </si>
-  <si>
-    <t>9000000030</t>
-  </si>
-  <si>
-    <t>5414647188482341</t>
-  </si>
-  <si>
-    <t>4314641158001862</t>
-  </si>
-  <si>
-    <t>19000000107</t>
-  </si>
-  <si>
-    <t>4714647903430401</t>
-  </si>
-  <si>
-    <t>4314648070553573</t>
-  </si>
-  <si>
-    <t>9000000034</t>
-  </si>
-  <si>
-    <t>5414648071344317</t>
-  </si>
-  <si>
-    <t>1714648133751018</t>
-  </si>
-  <si>
-    <t>9000000035</t>
-  </si>
-  <si>
-    <t>5314648134469482</t>
-  </si>
-  <si>
-    <t>1714648160456184</t>
-  </si>
-  <si>
-    <t>9000000036</t>
-  </si>
-  <si>
-    <t>2314648161918747</t>
-  </si>
-  <si>
-    <t>1414649390960675</t>
-  </si>
-  <si>
-    <t>10000000101</t>
-  </si>
-  <si>
-    <t>directEbanking</t>
-  </si>
-  <si>
-    <t>4814648908473510</t>
-  </si>
-  <si>
-    <t>19000000187</t>
-  </si>
-  <si>
-    <t>idealabn</t>
-  </si>
-  <si>
-    <t>4814648066395059</t>
-  </si>
-  <si>
-    <t>19000000173</t>
-  </si>
-  <si>
-    <t>1714647980652428</t>
-  </si>
-  <si>
-    <t>19000000172</t>
-  </si>
-  <si>
-    <t>4414648085526134</t>
-  </si>
-  <si>
-    <t>19000000174</t>
-  </si>
-  <si>
-    <t>1714642645627089</t>
-  </si>
-  <si>
-    <t>19000000127</t>
-  </si>
-  <si>
-    <t>amex</t>
-  </si>
-  <si>
-    <t>2414642645724218</t>
-  </si>
-  <si>
-    <t>4814648805764995</t>
-  </si>
-  <si>
-    <t>13000000010</t>
-  </si>
-  <si>
-    <t>5314648806084106</t>
-  </si>
-  <si>
-    <t>mcdebit</t>
-  </si>
-  <si>
-    <t>1314648819090024</t>
-  </si>
-  <si>
-    <t>19000000182</t>
-  </si>
-  <si>
-    <t>2314648819871116</t>
-  </si>
-  <si>
-    <t>1714648914839859</t>
-  </si>
-  <si>
-    <t>17000000001</t>
-  </si>
-  <si>
-    <t>5314648916794636</t>
-  </si>
-  <si>
-    <t>4814648930000133</t>
-  </si>
-  <si>
-    <t>19000000189</t>
-  </si>
-  <si>
-    <t>2314648930788249</t>
-  </si>
-  <si>
-    <t>4314647311552584</t>
-  </si>
-  <si>
-    <t>25000000009</t>
-  </si>
-  <si>
-    <t>5314647311810617</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>4314649578913244</t>
-  </si>
-  <si>
-    <t>19000000203</t>
-  </si>
-  <si>
-    <t>idealing</t>
-  </si>
-  <si>
-    <t>1414649561786958</t>
-  </si>
-  <si>
-    <t>19000000202</t>
-  </si>
-  <si>
-    <t>4814649506629370</t>
-  </si>
-  <si>
-    <t>19000000201</t>
-  </si>
-  <si>
-    <t>idealtriodos</t>
-  </si>
-  <si>
-    <t>4414649484163727</t>
-  </si>
-  <si>
-    <t>19000000200</t>
-  </si>
-  <si>
-    <t>1814649477601743</t>
-  </si>
-  <si>
-    <t>19000000199</t>
-  </si>
-  <si>
-    <t>1314649403498110</t>
-  </si>
-  <si>
-    <t>19000000196</t>
-  </si>
-  <si>
-    <t>4314649381518800</t>
-  </si>
-  <si>
-    <t>19000000194</t>
-  </si>
-  <si>
-    <t>4414649407460879</t>
-  </si>
-  <si>
-    <t>19000000197</t>
-  </si>
-  <si>
-    <t>4714648994257893</t>
-  </si>
-  <si>
-    <t>19000000192</t>
-  </si>
-  <si>
-    <t>1414648882690758</t>
-  </si>
-  <si>
-    <t>19000000185</t>
-  </si>
-  <si>
-    <t>4414648895216033</t>
-  </si>
-  <si>
-    <t>19000000186</t>
-  </si>
-  <si>
-    <t>4314644404428319</t>
-  </si>
-  <si>
-    <t>19000000142</t>
-  </si>
-  <si>
-    <t>5314644404485514</t>
-  </si>
-  <si>
-    <t>1814645453516913</t>
-  </si>
-  <si>
-    <t>10000000071</t>
-  </si>
-  <si>
-    <t>2314645453637464</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>Transaction Fees June      2016</t>
-  </si>
-  <si>
-    <t>MerchantPayout</t>
-  </si>
-  <si>
-    <t>Batch 8</t>
+    <t xml:space="preserve">Company Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psp Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Debit (GC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Credit (GC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Debit (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Credit (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markup (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme Fees (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interchange (NC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Method Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification Merchant Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOURCOMPANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOURCOMPANY_ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414648783376705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refunded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1514649466943109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idealrabobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4714647874709213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5414647876884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;auto&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314633367275510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414647908467468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mccredit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314646407640444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5414646407978592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visadebit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414646749782073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2414646750727064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visaclassic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4714646848670501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314646849092524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314646889502997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314646889937232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814647174458623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314647174757944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314647188012811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5414647188482341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314641158001862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4714647903430401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314648070553573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5414648071344317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1714648133751018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314648134469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1714648160456184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314648161918747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414649390960675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">directEbanking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814648908473510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idealabn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814648066395059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1714647980652428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414648085526134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1714642645627089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2414642645724218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814648805764995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13000000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314648806084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcdebit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1314648819090024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314648819871116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1714648914839859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314648916794636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814648930000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314648930788249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314647311552584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314647311810617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314649578913244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idealing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414649561786958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814649506629370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idealtriodos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414649484163727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814649477601743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1314649403498110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314649381518800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414649407460879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4714648994257893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414648882690758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414648895216033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4314644404428319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000000142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5314644404485514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814645453516913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314645453637464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Fees June      2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MerchantPayout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 8</t>
   </si>
 </sst>
 </file>
@@ -478,9 +483,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="YYYY/MM/DD\ HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -620,12 +625,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -641,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1535040</xdr:colOff>
+      <xdr:colOff>1534680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>636840</xdr:rowOff>
+      <xdr:rowOff>636480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,14 +657,12 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="278280" y="99720"/>
-          <a:ext cx="3039840" cy="537120"/>
+          <a:ext cx="3039480" cy="536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,38 +684,35 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P38" activeCellId="0" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.58482142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.5267857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8348214285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9241071428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8973214285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5267857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5223214285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3794642857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.7589285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3392857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.6607142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3258928571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8571428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2678571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.625"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2857142857143"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0178571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.7321428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0267857142857"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0178571428571"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.3973214285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="32.1830357142857"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.3303571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="25" style="0" width="11.5223214285714"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.0178571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.5223214285714"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="54.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="32.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="56.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3090,7 +3090,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
